--- a/可研报告/数据字典.xlsx
+++ b/可研报告/数据字典.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29B715C1-2204-4742-8C9F-369C4424103F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149AA7B5-9884-46F5-B8A4-FFDB65D6A68D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13470" yWindow="350" windowWidth="16200" windowHeight="10060" xr2:uid="{314F2C55-946F-4B51-A8CB-6E5659C1AEB2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{314F2C55-946F-4B51-A8CB-6E5659C1AEB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="131">
   <si>
     <t>数据名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,7 +325,373 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预测、评价信息=平时表现评价+期末成绩预测</t>
+    <t>由处理程序输出，被存储并被下一个处理程序调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被记录在”预测、评价信息“中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>预测、评价信息=平时表现评价+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>期末成绩预测</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用自然语言描述评价，成绩用数字表示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由直接信息整理得到的有效评价和预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测、反馈信息=平时表现评价+期末成绩预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由处理程序输出，由报告产生程序调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对期末成绩的预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩预测评价报告=平时表现评价+期末成绩预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出给老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与实际成绩对比产生的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测、反馈信息=预测与实际的差值+相差的百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相差的百分比存在上下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由处理程序对比经计算产生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经整理生成的反馈报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测反馈报告=预测与实际的差值+相差的百分比+产生误差的原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相差的百分比存在上下限，原因由自然语言表述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据流分量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业提交状况</t>
+  </si>
+  <si>
+    <t>学习时长</t>
+  </si>
+  <si>
+    <t>课堂参与度</t>
+  </si>
+  <si>
+    <t>作业完成度</t>
+  </si>
+  <si>
+    <t>学习投入度</t>
+  </si>
+  <si>
+    <t>学生类别</t>
+  </si>
+  <si>
+    <t>期末成绩预测</t>
+  </si>
+  <si>
+    <t>学生出勤情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤状况=0{数字}实际课时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值的范围：0-实际课时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生上传作业情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业提交状况=0{数字}作业总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值的范围：0-作业总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生在线学习时间长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习时长=0{数字}课程总时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值的范围：0-课程总时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由出勤情况反映的参与情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课堂参与度=0{数字}1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值的范围：0-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由作业提交情况反映的作业完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业完成度=0{数字}1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由学习时长反映的投入情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习投入度=0{数字}1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据学习信息把学生分为几个不同的类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生类别=[常缺席|缺少作业|表现较差|表现较好|表现优异]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选项均在式中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对学生期末成绩的预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末成绩预测=0{数字}100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值的范围：0-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于存储学生信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于存储状态分析信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于存储分类信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于存储预测、评价信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个用于存储学生信息的存储结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个用于存储状态分析信息的存储结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个用于存储分类信息的存储结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个用于存储预测、评价信息的存储结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可输入和输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由位于前后方的处理程序输入和调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬取学生数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从特定网站上获取所需要的相关学生信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种按照一定的规则，自动地抓取万维网信息的程序或脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由程序入口将网站信息输入程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接来源于学习平台，由程序使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新学生信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于新进入的爬取的信息进行更新操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使进入程序的信息保持当前最新版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据最新的爬虫数据进行对比找出不同并于存储进行交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与学生信息存储结构交换数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理学生学习信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析得到学生的学习状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用更新学生信息得到的学习信息来分析学生状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由学习信息经分析导出状态分析信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向状态分析信息存储结构导入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理状态分析信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析得到学生的分类信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用更新状态分析信息得到的状态分析信息来对学生进行分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由状态分析信息经分析导出学生分类信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向分类信息存储结构导入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理状态分类信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析得到学生的预测、评价信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用更新分类信息得到的分类信息来对学生进行预测和评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由分类信息经分析导出学生预测和评价信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向预测、评价信息存储结构导入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生成绩预测报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合分析数据得到学生最终的成绩预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用预测、评价信息来对学生进行最终的成绩报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由预测、评价信息经分析导出成绩预测报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接输出给相关老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对学生的个性化评价系统数据字典</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -333,7 +699,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +723,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -366,12 +750,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -380,11 +779,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -701,176 +1115,594 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3862A33A-A721-4A2D-9D38-3ED2255A6186}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="33.9140625" customWidth="1"/>
-    <col min="4" max="4" width="59.6640625" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.08203125" customWidth="1"/>
+    <col min="4" max="4" width="53.9140625" customWidth="1"/>
+    <col min="5" max="5" width="49.4140625" customWidth="1"/>
     <col min="6" max="6" width="46.1640625" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
+      <c r="G8" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" t="s">
+      <c r="C9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" t="s">
+      <c r="C10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="C12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A10"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
